--- a/pealent.xlsx
+++ b/pealent.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoros\Documents\pealent\"/>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:v="urn:schemas-microsoft-com:vml">
   <authors>
     <author>gsoros</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="1030">
       <text>
         <r>
           <rPr>
@@ -55,8 +58,29 @@
 When inputting new ingredients, only modify this sheet and only the columns with non-italicized headers in this sheet.</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1819275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="1026">
       <text>
         <r>
           <rPr>
@@ -69,8 +93,29 @@
 Example: You buy a tub of pea protein that has 5 kg of pea protein in it. 5000 should be in this column.</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="1028">
       <text>
         <r>
           <rPr>
@@ -82,8 +127,29 @@
           <t>Has the same meaning as "serving size" on a nutrition facts label--it's a sample of the whole weight that contains specified amounts of nutrients.</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="1027">
       <text>
         <r>
           <rPr>
@@ -95,8 +161,29 @@
           <t>How much the whole package/container costs, as opposed to the "serving" (`Ref Serving [g]`) which is the quantity on the nutrition facts label.</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="1029">
       <text>
         <r>
           <rPr>
@@ -108,8 +195,29 @@
           <t>kcals in the serving size (column `Ref Serving [g]`)</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="1034">
       <text>
         <r>
           <rPr>
@@ -121,8 +229,29 @@
           <t>Main purpose of this is to provide fiber (and some protein--2 birds 1 stone). Psyllium husk, another often used fiber source, absolutely destroys the texture of the final product.</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="1032">
       <text>
         <r>
           <rPr>
@@ -134,8 +263,29 @@
           <t>emulsifier</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="1033">
       <text>
         <r>
           <rPr>
@@ -147,8 +297,29 @@
           <t>Has no function other than adding calories (carb calories). To reduce or add calories, adjust maltodextrin.</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="1031">
       <text>
         <r>
           <rPr>
@@ -161,13 +332,34 @@
 Menthol dissolves readily in warm oil. Put it in the oil.</t>
         </r>
       </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="132">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="203" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -568,11 +760,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;????_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;????_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -634,8 +826,8 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -656,8 +848,8 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -697,8 +889,858 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Comment 2" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6276975" y="19050"/>
+              <a:ext cx="1400175" cy="1619250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>This is the net weight of the product in the whole container you buy, which costs the amount in the `Ref [$]` column.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+                <a:ea typeface="Tahoma"/>
+                <a:cs typeface="Tahoma"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Example: You buy a tub of pea protein that has 5 kg of pea protein in it. 5000 should be in this column.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Comment 3" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="8734425" y="19050"/>
+              <a:ext cx="1371600" cy="1133475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>How much the whole package/container costs, as opposed to the "serving" (`Ref Serving [g]`) which is the quantity on the nutrition facts label.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Comment 4" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7667625" y="19050"/>
+              <a:ext cx="1428750" cy="1076325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Has the same meaning as "serving size" on a nutrition facts label--it's a sample of the whole weight that contains specified amounts of nutrients.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Comment 5" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9686925" y="19050"/>
+              <a:ext cx="1371600" cy="752475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>kcals in the serving size (column `Ref Serving [g]`)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1819275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Comment 6" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4438650" y="19050"/>
+              <a:ext cx="1676400" cy="1209675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="1" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>italicized </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>columns are computed--do not edit them.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+                <a:ea typeface="Tahoma"/>
+                <a:cs typeface="Tahoma"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>When inputting new ingredients, only modify this sheet and only the columns with non-italicized headers in this sheet.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Comment 7" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2562225" y="2762250"/>
+              <a:ext cx="1943100" cy="1428750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Menthol anesthetizes tastebuds, oral cavity, and maybe the throat as well. This helps mask the taste. But menthol itself also tastes bad, so if you can taste the menthol, you added too much.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+                <a:ea typeface="Tahoma"/>
+                <a:cs typeface="Tahoma"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Menthol dissolves readily in warm oil. Put it in the oil.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>628650</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Comment 8" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2562225" y="666750"/>
+              <a:ext cx="1371600" cy="752475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>emulsifier</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Comment 9" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2562225" y="857250"/>
+              <a:ext cx="1390650" cy="857250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Has no function other than adding calories (carb calories). To reduce or add calories, adjust maltodextrin.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Comment 10" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2562225" y="285750"/>
+              <a:ext cx="1657350" cy="1095375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Main purpose of this is to provide fiber (and some protein--2 birds 1 stone). Psyllium husk, another often used fiber source, absolutely destroys the texture of the final product.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -817,25 +1859,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -843,25 +1885,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -874,21 +1916,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -902,7 +1944,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -914,32 +1956,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -959,12 +2001,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5281,12 +6323,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="v">
+      <legacyDrawing r:id="rId3"/>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5613,7 +6660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
@@ -5870,7 +6917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/pealent.xlsx
+++ b/pealent.xlsx
@@ -35,7 +35,7 @@
     <author>gsoros</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="1030">
+    <comment ref="C1" authorId="0" shapeId="1025">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="1028">
+    <comment ref="E1" authorId="0" shapeId="1027">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="1027">
+    <comment ref="F1" authorId="0" shapeId="1028">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="1034">
+    <comment ref="A3" authorId="0" shapeId="1030">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="1032">
+    <comment ref="A5" authorId="0" shapeId="1031">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="1033">
+    <comment ref="A6" authorId="0" shapeId="1032">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="1031">
+    <comment ref="A16" authorId="0" shapeId="1033">
       <text>
         <r>
           <rPr>
@@ -354,12 +354,46 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </comment>
+    <comment ref="A17" authorId="0" shapeId="1034">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This serves as a cheap insoluble fiber source.</t>
+        </r>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>885825</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="203" uniqueCount="132">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="205" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -755,6 +789,12 @@
   </si>
   <si>
     <t>Cocoa powder</t>
+  </si>
+  <si>
+    <t>Corn bran</t>
+  </si>
+  <si>
+    <t>Magnesium citrate</t>
   </si>
 </sst>
 </file>
@@ -896,6 +936,129 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1819275</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Comment 6" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4438650" y="19050"/>
+              <a:ext cx="1676400" cy="1209675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="1" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>italicized </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>columns are computed--do not edit them.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Tahoma"/>
+                <a:ea typeface="Tahoma"/>
+                <a:cs typeface="Tahoma"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>When inputting new ingredients, only modify this sheet and only the columns with non-italicized headers in this sheet.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
           <xdr:row>0</xdr:row>
@@ -1008,6 +1171,89 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Comment 4" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7667625" y="19050"/>
+              <a:ext cx="1428750" cy="1076325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Has the same meaning as "serving size" on a nutrition facts label--it's a sample of the whole weight that contains specified amounts of nutrients.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
           <xdr:row>0</xdr:row>
@@ -1021,7 +1267,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Comment 3" hidden="1"/>
+            <xdr:cNvPr id="1028" name="Comment 3" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1078,89 +1324,6 @@
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
                 <a:t>How much the whole package/container costs, as opposed to the "serving" (`Ref Serving [g]`) which is the quantity on the nutrition facts label.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Comment 4" hidden="1"/>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="7667625" y="19050"/>
-              <a:ext cx="1428750" cy="1076325"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFE1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Has the same meaning as "serving size" on a nutrition facts label--it's a sample of the whole weight that contains specified amounts of nutrients.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1257,28 +1420,28 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>1</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1819275</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Comment 6" hidden="1"/>
+            <xdr:cNvPr id="1030" name="Comment 10" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4438650" y="19050"/>
-              <a:ext cx="1676400" cy="1209675"/>
+              <a:off x="2562225" y="285750"/>
+              <a:ext cx="1657350" cy="1095375"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1318,17 +1481,6 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="1" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>italicized </a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
@@ -1337,22 +1489,76 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>columns are computed--do not edit them.</a:t>
+                <a:t>Main purpose of this is to provide fiber (and some protein--2 birds 1 stone). Psyllium husk, another often used fiber source, absolutely destroys the texture of the final product.</a:t>
               </a:r>
             </a:p>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Tahoma"/>
-                <a:ea typeface="Tahoma"/>
-                <a:cs typeface="Tahoma"/>
-              </a:endParaRPr>
-            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>628650</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Comment 8" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2562225" y="666750"/>
+              <a:ext cx="1371600" cy="752475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
@@ -1366,7 +1572,90 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>When inputting new ingredients, only modify this sheet and only the columns with non-italicized headers in this sheet.</a:t>
+                <a:t>emulsifier</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Comment 9" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2562225" y="857250"/>
+              <a:ext cx="1390650" cy="857250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Has no function other than adding calories (carb calories). To reduce or add calories, adjust maltodextrin.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1393,7 +1682,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Comment 7" hidden="1"/>
+            <xdr:cNvPr id="1033" name="Comment 7" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1494,26 +1783,26 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:colOff>885825</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Comment 8" hidden="1"/>
+            <xdr:cNvPr id="1034" name="Comment 10" hidden="1"/>
             <xdr:cNvSpPr txBox="1">
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2562225" y="666750"/>
-              <a:ext cx="1371600" cy="752475"/>
+              <a:off x="2562225" y="2962275"/>
+              <a:ext cx="1628775" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1561,173 +1850,7 @@
                   <a:ea typeface="Tahoma"/>
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
-                <a:t>emulsifier</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Comment 9" hidden="1"/>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="2562225" y="857250"/>
-              <a:ext cx="1390650" cy="857250"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFE1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Has no function other than adding calories (carb calories). To reduce or add calories, adjust maltodextrin.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
-    <mc:Fallback>
-      <xdr:twoCellAnchor editAs="absolute">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1034" name="Comment 10" hidden="1"/>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="2562225" y="285750"/>
-              <a:ext cx="1657350" cy="1095375"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFE1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800%"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Tahoma"/>
-                  <a:ea typeface="Tahoma"/>
-                  <a:cs typeface="Tahoma"/>
-                </a:rPr>
-                <a:t>Main purpose of this is to provide fiber (and some protein--2 birds 1 stone). Psyllium husk, another often used fiber source, absolutely destroys the texture of the final product.</a:t>
+                <a:t>This serves as a cheap insoluble fiber source.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2002,11 +2125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY16"/>
+  <dimension ref="A1:BY18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,11 +2434,11 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2:C16" si="0">F2/D2*B2</f>
-        <v>0.77323999999999993</v>
+        <v>0.8327199999999999</v>
       </c>
       <c r="D2" s="5">
         <v>20000</v>
@@ -2433,15 +2556,15 @@
       </c>
       <c r="AP2" s="6">
         <f>$B2/$E2*G2</f>
-        <v>476.66666666666663</v>
+        <v>513.33333333333337</v>
       </c>
       <c r="AQ2" s="6">
         <f>$B2/$E2*H2</f>
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AR2" s="6">
         <f t="shared" ref="AR2:BX16" si="1">$B2/$E2*I2</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AS2" s="6">
         <f t="shared" si="1"/>
@@ -2449,11 +2572,11 @@
       </c>
       <c r="AT2" s="6">
         <f t="shared" si="1"/>
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" s="6">
         <f t="shared" si="1"/>
-        <v>0.12999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AV2" s="6">
         <f t="shared" si="1"/>
@@ -2461,15 +2584,15 @@
       </c>
       <c r="AW2" s="6">
         <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AX2" s="6">
         <f t="shared" si="1"/>
-        <v>6.4999999999999988E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AY2" s="6">
         <f t="shared" si="1"/>
-        <v>21.666666666666664</v>
+        <v>23.333333333333336</v>
       </c>
       <c r="AZ2" s="6">
         <f t="shared" si="1"/>
@@ -2580,11 +2703,11 @@
         <v>74</v>
       </c>
       <c r="B3" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" si="0"/>
-        <v>0.57080882352941176</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
         <v>1360</v>
@@ -2702,19 +2825,19 @@
       </c>
       <c r="AP3" s="6">
         <f>$B3/$E3*G3</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="6">
         <f t="shared" ref="AQ3:AQ16" si="2">$B3/$E3*H3</f>
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="6">
         <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="6">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="6">
         <f t="shared" si="1"/>
@@ -2722,7 +2845,7 @@
       </c>
       <c r="AU3" s="6">
         <f t="shared" si="1"/>
-        <v>0.45499999999999996</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="6">
         <f t="shared" si="1"/>
@@ -2730,19 +2853,19 @@
       </c>
       <c r="AW3" s="6">
         <f t="shared" si="1"/>
-        <v>5.9499999999999993</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="6">
         <f t="shared" si="1"/>
-        <v>5.2499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="6">
         <f t="shared" si="1"/>
-        <v>7.35</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="6">
         <f t="shared" si="1"/>
-        <v>5.7049999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="6">
         <f t="shared" si="1"/>
@@ -2750,11 +2873,11 @@
       </c>
       <c r="BB3" s="6">
         <f t="shared" si="1"/>
-        <v>340.54999999999995</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="6">
         <f t="shared" si="1"/>
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="6">
         <f t="shared" si="1"/>
@@ -2762,11 +2885,11 @@
       </c>
       <c r="BE3" s="6">
         <f t="shared" si="1"/>
-        <v>0.6825</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="6">
         <f t="shared" ref="BF3:BM16" si="3">$B3/$E3*W3</f>
-        <v>5.669999999999999</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="6">
         <f t="shared" si="3"/>
@@ -2782,7 +2905,7 @@
       </c>
       <c r="BJ3" s="6">
         <f t="shared" si="3"/>
-        <v>0.39200000000000002</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="6">
         <f t="shared" si="3"/>
@@ -2798,7 +2921,7 @@
       </c>
       <c r="BN3" s="6">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="6">
         <f t="shared" ref="BO3:BX16" si="4">$B3/$E3*AF3</f>
@@ -2806,19 +2929,19 @@
       </c>
       <c r="BP3" s="6">
         <f t="shared" si="4"/>
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="6">
         <f t="shared" si="4"/>
-        <v>0.15049999999999999</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="6">
         <f t="shared" si="4"/>
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="6">
         <f t="shared" si="4"/>
-        <v>115.49999999999999</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="6">
         <f t="shared" si="4"/>
@@ -6058,11 +6181,11 @@
         <v>93</v>
       </c>
       <c r="B16" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="0"/>
-        <v>8.9285714285714294E-4</v>
+        <v>1.1160714285714287E-3</v>
       </c>
       <c r="D16" s="5">
         <v>112</v>
@@ -6319,6 +6442,544 @@
         <v>0</v>
       </c>
       <c r="BY16" s="2"/>
+    </row>
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" ref="C17:C18" si="7">F17/D17*B17</f>
+        <v>0.1981057268722467</v>
+      </c>
+      <c r="D17" s="5">
+        <f>5*454</f>
+        <v>2270</v>
+      </c>
+      <c r="E17" s="5">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14.99</v>
+      </c>
+      <c r="G17" s="6">
+        <v>90</v>
+      </c>
+      <c r="H17" s="6">
+        <v>20</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>14</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <f>0.02*18</f>
+        <v>0.36</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6">
+        <f>5000*0.04</f>
+        <v>200</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="6">
+        <f t="shared" ref="AP17:AP18" si="8">$B17/$E17*G17</f>
+        <v>112.5</v>
+      </c>
+      <c r="AQ17" s="6">
+        <f t="shared" ref="AQ17:AQ18" si="9">$B17/$E17*H17</f>
+        <v>25</v>
+      </c>
+      <c r="AR17" s="6">
+        <f t="shared" ref="AR17:AR18" si="10">$B17/$E17*I17</f>
+        <v>1.25</v>
+      </c>
+      <c r="AS17" s="6">
+        <f t="shared" ref="AS17:AS18" si="11">$B17/$E17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="6">
+        <f t="shared" ref="AT17:AT18" si="12">$B17/$E17*K17</f>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="6">
+        <f t="shared" ref="AU17:AU18" si="13">$B17/$E17*L17</f>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="6">
+        <f t="shared" ref="AV17:AV18" si="14">$B17/$E17*M17</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="6">
+        <f t="shared" ref="AW17:AW18" si="15">$B17/$E17*N17</f>
+        <v>17.5</v>
+      </c>
+      <c r="AX17" s="6">
+        <f t="shared" ref="AX17:AX18" si="16">$B17/$E17*O17</f>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="6">
+        <f t="shared" ref="AY17:AY18" si="17">$B17/$E17*P17</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AZ17" s="6">
+        <f t="shared" ref="AZ17:AZ18" si="18">$B17/$E17*Q17</f>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="6">
+        <f t="shared" ref="BA17:BA18" si="19">$B17/$E17*R17</f>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="6">
+        <f t="shared" ref="BB17:BB18" si="20">$B17/$E17*S17</f>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="6">
+        <f t="shared" ref="BC17:BC18" si="21">$B17/$E17*T17</f>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="6">
+        <f t="shared" ref="BD17:BD18" si="22">$B17/$E17*U17</f>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="6">
+        <f t="shared" ref="BE17:BE18" si="23">$B17/$E17*V17</f>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="6">
+        <f t="shared" ref="BF17:BF18" si="24">$B17/$E17*W17</f>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="6">
+        <f t="shared" ref="BG17:BG18" si="25">$B17/$E17*X17</f>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="6">
+        <f t="shared" ref="BH17:BH18" si="26">$B17/$E17*Y17</f>
+        <v>0</v>
+      </c>
+      <c r="BI17" s="6">
+        <f t="shared" ref="BI17:BI18" si="27">$B17/$E17*Z17</f>
+        <v>250</v>
+      </c>
+      <c r="BJ17" s="6">
+        <f t="shared" ref="BJ17:BJ18" si="28">$B17/$E17*AA17</f>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="6">
+        <f t="shared" ref="BK17:BK18" si="29">$B17/$E17*AB17</f>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="6">
+        <f t="shared" ref="BL17:BL18" si="30">$B17/$E17*AC17</f>
+        <v>0</v>
+      </c>
+      <c r="BM17" s="6">
+        <f t="shared" ref="BM17:BM18" si="31">$B17/$E17*AD17</f>
+        <v>0</v>
+      </c>
+      <c r="BN17" s="6">
+        <f t="shared" ref="BN17:BN18" si="32">$B17/$E17*AE17</f>
+        <v>0</v>
+      </c>
+      <c r="BO17" s="6">
+        <f t="shared" ref="BO17:BO18" si="33">$B17/$E17*AF17</f>
+        <v>0</v>
+      </c>
+      <c r="BP17" s="6">
+        <f t="shared" ref="BP17:BP18" si="34">$B17/$E17*AG17</f>
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="6">
+        <f t="shared" ref="BQ17:BQ18" si="35">$B17/$E17*AH17</f>
+        <v>0</v>
+      </c>
+      <c r="BR17" s="6">
+        <f t="shared" ref="BR17:BR18" si="36">$B17/$E17*AI17</f>
+        <v>0</v>
+      </c>
+      <c r="BS17" s="6">
+        <f t="shared" ref="BS17:BS18" si="37">$B17/$E17*AJ17</f>
+        <v>0</v>
+      </c>
+      <c r="BT17" s="6">
+        <f t="shared" ref="BT17:BT18" si="38">$B17/$E17*AK17</f>
+        <v>0</v>
+      </c>
+      <c r="BU17" s="6">
+        <f t="shared" ref="BU17:BU18" si="39">$B17/$E17*AL17</f>
+        <v>0</v>
+      </c>
+      <c r="BV17" s="6">
+        <f t="shared" ref="BV17:BV18" si="40">$B17/$E17*AM17</f>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="6">
+        <f t="shared" ref="BW17:BW18" si="41">$B17/$E17*AN17</f>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="6">
+        <f t="shared" ref="BX17:BX18" si="42">$B17/$E17*AO17</f>
+        <v>0</v>
+      </c>
+      <c r="BY17" s="2"/>
+    </row>
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="7"/>
+        <v>2.0748000000000003E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15.96</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <f>(24.305/214.41)*E18*1000</f>
+        <v>113.3575859334919</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BB18" s="6">
+        <f>$B18/$E18*S18</f>
+        <v>147.36486171353948</v>
+      </c>
+      <c r="BC18" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BF18" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BI18" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BK18" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BM18" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BN18" s="6">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BO18" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BP18" s="6">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="6">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BR18" s="6">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BS18" s="6">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BT18" s="6">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="6">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="6">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BX18" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BY18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6337,7 +6998,7 @@
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,35 +7154,35 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(Spec!B2:B999)</f>
-        <v>450.56800000000004</v>
+        <v>456.87000000000006</v>
       </c>
       <c r="B2" s="3">
         <f>SUM(Spec!C2:C999)</f>
-        <v>2.9744559694240893</v>
+        <v>2.6822040870526389</v>
       </c>
       <c r="C2" s="2">
         <f>SUM(Spec!AP2:'Spec'!AP999)</f>
-        <v>1904.9566666666665</v>
+        <v>1914.1233333333334</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(Spec!AQ2:'Spec'!AQ999)</f>
-        <v>169.02500000000003</v>
+        <v>191.55833333333337</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(Spec!AR2:'Spec'!AR999)</f>
-        <v>149.84000000000003</v>
+        <v>141.59000000000003</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(Spec!AS2:'Spec'!AS999)</f>
-        <v>59.092500000000001</v>
+        <v>54.892499999999998</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(Spec!AT2:'Spec'!AT999)</f>
-        <v>2.0190333333333332</v>
+        <v>2.1690333333333336</v>
       </c>
       <c r="H2" s="2">
         <f>SUM(Spec!AU2:'Spec'!AU999)</f>
-        <v>3.9408000000000003</v>
+        <v>3.4958</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(Spec!AV2:'Spec'!AV999)</f>
@@ -6529,19 +7190,19 @@
       </c>
       <c r="J2" s="2">
         <f>SUM(Spec!AW2:'Spec'!AW999)</f>
-        <v>23.894000000000002</v>
+        <v>35.777333333333331</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(Spec!AX2:'Spec'!AX999)</f>
-        <v>0.99596000000000007</v>
+        <v>0.94845999999999997</v>
       </c>
       <c r="L2" s="2">
         <f>SUM(Spec!AY2:'Spec'!AY999)</f>
-        <v>35.504666666666665</v>
+        <v>30.271333333333335</v>
       </c>
       <c r="M2" s="2">
         <f>SUM(Spec!AZ2:'Spec'!AZ999)</f>
-        <v>0.81133000000000011</v>
+        <v>0.75428000000000006</v>
       </c>
       <c r="N2" s="2">
         <f>SUM(Spec!BA2:'Spec'!BA999)</f>
@@ -6549,11 +7210,11 @@
       </c>
       <c r="O2" s="2">
         <f>SUM(Spec!BB2:'Spec'!BB999)</f>
-        <v>618.25500000000011</v>
+        <v>425.06986171353947</v>
       </c>
       <c r="P2" s="2">
         <f>SUM(Spec!BC2:'Spec'!BC999)</f>
-        <v>24.951000000000001</v>
+        <v>20.401</v>
       </c>
       <c r="Q2" s="2">
         <f>SUM(Spec!BD2:'Spec'!BD999)</f>
@@ -6561,11 +7222,11 @@
       </c>
       <c r="R2" s="2">
         <f>SUM(Spec!BE2:'Spec'!BE999)</f>
-        <v>1.7390000000000001</v>
+        <v>1.0565</v>
       </c>
       <c r="S2" s="2">
         <f>SUM(Spec!BF2:'Spec'!BF999)</f>
-        <v>11.608999999999998</v>
+        <v>5.9390000000000001</v>
       </c>
       <c r="T2" s="2">
         <f>SUM(Spec!BG2:'Spec'!BG999)</f>
@@ -6577,11 +7238,11 @@
       </c>
       <c r="V2" s="2">
         <f>SUM(Spec!BI2:'Spec'!BI999)</f>
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="W2" s="2">
         <f>SUM(Spec!BJ2:'Spec'!BJ999)</f>
-        <v>6.5975999999999999</v>
+        <v>6.2056000000000004</v>
       </c>
       <c r="X2" s="2">
         <f>SUM(Spec!BK2:'Spec'!BK999)</f>
@@ -6597,7 +7258,7 @@
       </c>
       <c r="AA2" s="2">
         <f>SUM(Spec!BN2:'Spec'!BN999)</f>
-        <v>70.646129999999999</v>
+        <v>66.446129999999997</v>
       </c>
       <c r="AB2" s="2">
         <f>SUM(Spec!BO2:'Spec'!BO999)</f>
@@ -6605,19 +7266,19 @@
       </c>
       <c r="AC2" s="2">
         <f>SUM(Spec!BP2:'Spec'!BP999)</f>
-        <v>2.585</v>
+        <v>2.5219999999999998</v>
       </c>
       <c r="AD2" s="2">
         <f>SUM(Spec!BQ2:'Spec'!BQ999)</f>
-        <v>2.0665</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="AE2" s="2">
         <f>SUM(Spec!BR2:'Spec'!BR999)</f>
-        <v>30.704000000000001</v>
+        <v>26.154</v>
       </c>
       <c r="AF2" s="2">
         <f>SUM(Spec!BS2:'Spec'!BS999)</f>
-        <v>496.53999999999996</v>
+        <v>381.03999999999996</v>
       </c>
       <c r="AG2" s="2">
         <f>SUM(Spec!BT2:'Spec'!BT999)</f>
@@ -6643,15 +7304,15 @@
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D3" s="7">
         <f>D2/(D2+E2+F2)</f>
-        <v>0.44720636579509598</v>
+        <v>0.49365509214021719</v>
       </c>
       <c r="E3" s="7">
         <f>E2/(F2+E2+D2)</f>
-        <v>0.3964466904347711</v>
+        <v>0.36488427979014243</v>
       </c>
       <c r="F3" s="7">
         <f>F2/(F2+E2+D2)</f>
-        <v>0.15634694377013286</v>
+        <v>0.14146062806964044</v>
       </c>
     </row>
   </sheetData>
@@ -6663,8 +7324,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6920,7 +7581,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7062,27 +7725,27 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>(Totals!C2-RDAs!A2)/IF(RDAs!A2=0, 1, RDAs!A2)</f>
-        <v>-4.7521666666666761E-2</v>
+        <v>-4.2938333333333273E-2</v>
       </c>
       <c r="B2" s="7">
         <f>(Totals!D2-RDAs!B2)/IF(RDAs!B2=0, 1, RDAs!B2)</f>
-        <v>0.30019230769230798</v>
+        <v>0.47352564102564126</v>
       </c>
       <c r="C2" s="7">
         <f>(Totals!E2-RDAs!C2)/IF(RDAs!C2=0, 1, RDAs!C2)</f>
-        <v>0.76282352941176512</v>
+        <v>0.66576470588235337</v>
       </c>
       <c r="D2" s="7">
         <f>(Totals!F2-RDAs!D2)/IF(RDAs!D2=0, 1, RDAs!D2)</f>
-        <v>-9.0884615384615369E-2</v>
+        <v>-0.15550000000000003</v>
       </c>
       <c r="E2" s="7">
         <f>(Totals!G2-RDAs!E2)/IF(RDAs!E2=0, 1, RDAs!E2)</f>
-        <v>0.34602222222222218</v>
+        <v>0.44602222222222238</v>
       </c>
       <c r="F2" s="7">
         <f>(Totals!H2-RDAs!F2)/IF(RDAs!F2=0, 1, RDAs!F2)</f>
-        <v>0.12594285714285722</v>
+        <v>-1.1999999999999947E-3</v>
       </c>
       <c r="G2" s="7">
         <f>(Totals!I2-RDAs!G2)/IF(RDAs!G2=0, 1, RDAs!G2)</f>
@@ -7090,19 +7753,19 @@
       </c>
       <c r="H2" s="7">
         <f>(Totals!J2-RDAs!H2)/IF(RDAs!H2=0, 1, RDAs!H2)</f>
-        <v>-0.14664285714285707</v>
+        <v>0.27776190476190471</v>
       </c>
       <c r="I2" s="7">
         <f>(Totals!K2-RDAs!I2)/IF(RDAs!I2=0, 1, RDAs!I2)</f>
-        <v>-4.0399999999999325E-3</v>
+        <v>-5.154000000000003E-2</v>
       </c>
       <c r="J2" s="7">
         <f>(Totals!L2-RDAs!J2)/IF(RDAs!J2=0, 1, RDAs!J2)</f>
-        <v>3.4380833333333332</v>
+        <v>2.7839166666666668</v>
       </c>
       <c r="K2" s="7">
         <f>(Totals!M2-RDAs!K2)/IF(RDAs!K2=0, 1, RDAs!K2)</f>
-        <v>0.15904285714285737</v>
+        <v>7.7542857142857302E-2</v>
       </c>
       <c r="L2" s="7">
         <f>(Totals!N2-RDAs!L2)/IF(RDAs!L2=0, 1, RDAs!L2)</f>
@@ -7110,11 +7773,11 @@
       </c>
       <c r="M2" s="7">
         <f>(Totals!O2-RDAs!M2)/IF(RDAs!M2=0, 1, RDAs!M2)</f>
-        <v>0.47203571428571456</v>
+        <v>1.2071099317951112E-2</v>
       </c>
       <c r="N2" s="7">
         <f>(Totals!P2-RDAs!N2)/IF(RDAs!N2=0, 1, RDAs!N2)</f>
-        <v>1.2682727272727272</v>
+        <v>0.85463636363636364</v>
       </c>
       <c r="O2" s="7">
         <f>(Totals!Q2-RDAs!O2)/IF(RDAs!O2=0, 1, RDAs!O2)</f>
@@ -7122,11 +7785,11 @@
       </c>
       <c r="P2" s="7">
         <f>(Totals!R2-RDAs!P2)/IF(RDAs!P2=0, 1, RDAs!P2)</f>
-        <v>0.93222222222222229</v>
+        <v>0.17388888888888884</v>
       </c>
       <c r="Q2" s="7">
         <f>(Totals!S2-RDAs!Q2)/IF(RDAs!Q2=0, 1, RDAs!Q2)</f>
-        <v>4.0473913043478253</v>
+        <v>1.5821739130434784</v>
       </c>
       <c r="R2" s="7">
         <f>(Totals!T2-RDAs!R2)/IF(RDAs!R2=0, 1, RDAs!R2)</f>
@@ -7138,11 +7801,11 @@
       </c>
       <c r="T2" s="7">
         <f>(Totals!V2-RDAs!T2)/IF(RDAs!T2=0, 1, RDAs!T2)</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="U2" s="7">
         <f>(Totals!W2-RDAs!U2)/IF(RDAs!U2=0, 1, RDAs!U2)</f>
-        <v>4.0750769230769226</v>
+        <v>3.773538461538462</v>
       </c>
       <c r="V2" s="7">
         <f>(Totals!X2-RDAs!V2)/IF(RDAs!V2=0, 1, RDAs!V2)</f>
@@ -7158,7 +7821,7 @@
       </c>
       <c r="Y2" s="7">
         <f>(Totals!AA2-RDAs!Y2)/IF(RDAs!Y2=0, 1, RDAs!Y2)</f>
-        <v>2.5323064999999998</v>
+        <v>2.3223064999999998</v>
       </c>
       <c r="Z2" s="7">
         <f>(Totals!AB2-RDAs!Z2)/IF(RDAs!Z2=0, 1, RDAs!Z2)</f>
@@ -7166,19 +7829,19 @@
       </c>
       <c r="AA2" s="7">
         <f>(Totals!AC2-RDAs!AA2)/IF(RDAs!AA2=0, 1, RDAs!AA2)</f>
-        <v>1.1541666666666668</v>
+        <v>1.1016666666666666</v>
       </c>
       <c r="AB2" s="7">
         <f>(Totals!AD2-RDAs!AB2)/IF(RDAs!AB2=0, 1, RDAs!AB2)</f>
-        <v>0.58961538461538454</v>
+        <v>0.47384615384615375</v>
       </c>
       <c r="AC2" s="7">
         <f>(Totals!AE2-RDAs!AC2)/IF(RDAs!AC2=0, 1, RDAs!AC2)</f>
-        <v>0.91900000000000004</v>
+        <v>0.63462499999999999</v>
       </c>
       <c r="AD2" s="7">
         <f>(Totals!AF2-RDAs!AD2)/IF(RDAs!AD2=0, 1, RDAs!AD2)</f>
-        <v>0.2413499999999999</v>
+        <v>-4.7400000000000088E-2</v>
       </c>
       <c r="AE2" s="7">
         <f>(Totals!AG2-RDAs!AE2)/IF(RDAs!AE2=0, 1, RDAs!AE2)</f>

--- a/pealent.xlsx
+++ b/pealent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Spec" sheetId="1" r:id="rId1"/>
@@ -64,14 +64,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1819275</xdr:colOff>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -99,14 +99,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1438275</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1000125</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </to>
@@ -133,14 +133,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
@@ -167,14 +167,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -201,14 +201,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -235,14 +235,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -269,14 +269,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
+                <xdr:colOff>104775</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -303,14 +303,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>180975</xdr:rowOff>
               </to>
@@ -338,14 +338,14 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>180975</xdr:rowOff>
               </to>
@@ -372,16 +372,94 @@
           <commentPr defaultSize="0" autoFill="0" autoLine="0">
             <anchor>
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>885825</xdr:colOff>
+                <xdr:colOff>361950</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="1035">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This serves as (1) a cheap, tasteless source of insoluble fiber and (2) a great source of micronutrients.</t>
+        </r>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </commentPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:v="urn:schemas-microsoft-com:vml">
+  <authors>
+    <author>gsoros</author>
+  </authors>
+  <commentList>
+    <comment ref="AH2" authorId="0" shapeId="4097">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>It's not yet clear that this is necessary. Also a low sulfur diet promotes longevity.</t>
+        </r>
+      </text>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="v"/>
+        <mc:Fallback>
+          <commentPr defaultSize="0" autoFill="0" autoLine="0">
+            <anchor>
+              <from>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>36</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -393,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="205" uniqueCount="134">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="207" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -795,6 +873,12 @@
   </si>
   <si>
     <t>Magnesium citrate</t>
+  </si>
+  <si>
+    <t>https://shop.honeyville.com/fine-rice-bran.html</t>
+  </si>
+  <si>
+    <t>Rice bran, stabilized, fine</t>
   </si>
 </sst>
 </file>
@@ -936,14 +1020,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1819275</xdr:colOff>
+          <xdr:colOff>1276350</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -1059,14 +1143,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1438275</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1000125</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
@@ -1171,14 +1255,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>990600</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
@@ -1254,14 +1338,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1337,14 +1421,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1420,14 +1504,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
+          <xdr:colOff>390525</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1503,14 +1587,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -1586,14 +1670,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
@@ -1669,14 +1753,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
@@ -1781,14 +1865,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -1851,6 +1935,177 @@
                   <a:cs typeface="Tahoma"/>
                 </a:rPr>
                 <a:t>This serves as a cheap insoluble fiber source.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Comment 11" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3086100" y="3343275"/>
+              <a:ext cx="1857375" cy="771525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>This serves as (1) a cheap, tasteless source of insoluble fiber and (2) a great source of micronutrients.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Fallback>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:v="urn:schemas-microsoft-com:vml" Requires="v"/>
+    <mc:Fallback>
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>36</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Comment 1" hidden="1"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="29822775" y="104775"/>
+              <a:ext cx="1533525" cy="752475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFE1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800%"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>It's not yet clear that this is necessary. Also a low sulfur diet promotes longevity.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2125,18 +2380,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY18"/>
+  <dimension ref="A1:BY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -6448,11 +6703,11 @@
         <v>132</v>
       </c>
       <c r="B17" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:C18" si="7">F17/D17*B17</f>
-        <v>0.1981057268722467</v>
+        <f t="shared" ref="C17:C19" si="7">F17/D17*B17</f>
+        <v>0</v>
       </c>
       <c r="D17" s="5">
         <f>5*454</f>
@@ -6572,143 +6827,143 @@
         <v>0</v>
       </c>
       <c r="AP17" s="6">
-        <f t="shared" ref="AP17:AP18" si="8">$B17/$E17*G17</f>
-        <v>112.5</v>
+        <f t="shared" ref="AP17:AP19" si="8">$B17/$E17*G17</f>
+        <v>0</v>
       </c>
       <c r="AQ17" s="6">
-        <f t="shared" ref="AQ17:AQ18" si="9">$B17/$E17*H17</f>
-        <v>25</v>
+        <f t="shared" ref="AQ17:AQ19" si="9">$B17/$E17*H17</f>
+        <v>0</v>
       </c>
       <c r="AR17" s="6">
-        <f t="shared" ref="AR17:AR18" si="10">$B17/$E17*I17</f>
-        <v>1.25</v>
+        <f t="shared" ref="AR17:AR19" si="10">$B17/$E17*I17</f>
+        <v>0</v>
       </c>
       <c r="AS17" s="6">
-        <f t="shared" ref="AS17:AS18" si="11">$B17/$E17*J17</f>
+        <f t="shared" ref="AS17:AS19" si="11">$B17/$E17*J17</f>
         <v>0</v>
       </c>
       <c r="AT17" s="6">
-        <f t="shared" ref="AT17:AT18" si="12">$B17/$E17*K17</f>
+        <f t="shared" ref="AT17:AT19" si="12">$B17/$E17*K17</f>
         <v>0</v>
       </c>
       <c r="AU17" s="6">
-        <f t="shared" ref="AU17:AU18" si="13">$B17/$E17*L17</f>
+        <f t="shared" ref="AU17:AU19" si="13">$B17/$E17*L17</f>
         <v>0</v>
       </c>
       <c r="AV17" s="6">
-        <f t="shared" ref="AV17:AV18" si="14">$B17/$E17*M17</f>
+        <f t="shared" ref="AV17:AV19" si="14">$B17/$E17*M17</f>
         <v>0</v>
       </c>
       <c r="AW17" s="6">
-        <f t="shared" ref="AW17:AW18" si="15">$B17/$E17*N17</f>
-        <v>17.5</v>
+        <f t="shared" ref="AW17:AW19" si="15">$B17/$E17*N17</f>
+        <v>0</v>
       </c>
       <c r="AX17" s="6">
-        <f t="shared" ref="AX17:AX18" si="16">$B17/$E17*O17</f>
+        <f t="shared" ref="AX17:AX19" si="16">$B17/$E17*O17</f>
         <v>0</v>
       </c>
       <c r="AY17" s="6">
-        <f t="shared" ref="AY17:AY18" si="17">$B17/$E17*P17</f>
-        <v>0.44999999999999996</v>
+        <f t="shared" ref="AY17:AY19" si="17">$B17/$E17*P17</f>
+        <v>0</v>
       </c>
       <c r="AZ17" s="6">
-        <f t="shared" ref="AZ17:AZ18" si="18">$B17/$E17*Q17</f>
+        <f t="shared" ref="AZ17:AZ19" si="18">$B17/$E17*Q17</f>
         <v>0</v>
       </c>
       <c r="BA17" s="6">
-        <f t="shared" ref="BA17:BA18" si="19">$B17/$E17*R17</f>
+        <f t="shared" ref="BA17:BA19" si="19">$B17/$E17*R17</f>
         <v>0</v>
       </c>
       <c r="BB17" s="6">
-        <f t="shared" ref="BB17:BB18" si="20">$B17/$E17*S17</f>
+        <f t="shared" ref="BB17" si="20">$B17/$E17*S17</f>
         <v>0</v>
       </c>
       <c r="BC17" s="6">
-        <f t="shared" ref="BC17:BC18" si="21">$B17/$E17*T17</f>
+        <f t="shared" ref="BC17:BC19" si="21">$B17/$E17*T17</f>
         <v>0</v>
       </c>
       <c r="BD17" s="6">
-        <f t="shared" ref="BD17:BD18" si="22">$B17/$E17*U17</f>
+        <f t="shared" ref="BD17:BD19" si="22">$B17/$E17*U17</f>
         <v>0</v>
       </c>
       <c r="BE17" s="6">
-        <f t="shared" ref="BE17:BE18" si="23">$B17/$E17*V17</f>
+        <f t="shared" ref="BE17:BE19" si="23">$B17/$E17*V17</f>
         <v>0</v>
       </c>
       <c r="BF17" s="6">
-        <f t="shared" ref="BF17:BF18" si="24">$B17/$E17*W17</f>
+        <f t="shared" ref="BF17:BF19" si="24">$B17/$E17*W17</f>
         <v>0</v>
       </c>
       <c r="BG17" s="6">
-        <f t="shared" ref="BG17:BG18" si="25">$B17/$E17*X17</f>
+        <f t="shared" ref="BG17:BG19" si="25">$B17/$E17*X17</f>
         <v>0</v>
       </c>
       <c r="BH17" s="6">
-        <f t="shared" ref="BH17:BH18" si="26">$B17/$E17*Y17</f>
+        <f t="shared" ref="BH17:BH19" si="26">$B17/$E17*Y17</f>
         <v>0</v>
       </c>
       <c r="BI17" s="6">
-        <f t="shared" ref="BI17:BI18" si="27">$B17/$E17*Z17</f>
-        <v>250</v>
+        <f t="shared" ref="BI17:BI19" si="27">$B17/$E17*Z17</f>
+        <v>0</v>
       </c>
       <c r="BJ17" s="6">
-        <f t="shared" ref="BJ17:BJ18" si="28">$B17/$E17*AA17</f>
+        <f t="shared" ref="BJ17:BJ19" si="28">$B17/$E17*AA17</f>
         <v>0</v>
       </c>
       <c r="BK17" s="6">
-        <f t="shared" ref="BK17:BK18" si="29">$B17/$E17*AB17</f>
+        <f t="shared" ref="BK17:BK19" si="29">$B17/$E17*AB17</f>
         <v>0</v>
       </c>
       <c r="BL17" s="6">
-        <f t="shared" ref="BL17:BL18" si="30">$B17/$E17*AC17</f>
+        <f t="shared" ref="BL17:BL19" si="30">$B17/$E17*AC17</f>
         <v>0</v>
       </c>
       <c r="BM17" s="6">
-        <f t="shared" ref="BM17:BM18" si="31">$B17/$E17*AD17</f>
+        <f t="shared" ref="BM17:BM19" si="31">$B17/$E17*AD17</f>
         <v>0</v>
       </c>
       <c r="BN17" s="6">
-        <f t="shared" ref="BN17:BN18" si="32">$B17/$E17*AE17</f>
+        <f t="shared" ref="BN17:BN19" si="32">$B17/$E17*AE17</f>
         <v>0</v>
       </c>
       <c r="BO17" s="6">
-        <f t="shared" ref="BO17:BO18" si="33">$B17/$E17*AF17</f>
+        <f t="shared" ref="BO17:BO19" si="33">$B17/$E17*AF17</f>
         <v>0</v>
       </c>
       <c r="BP17" s="6">
-        <f t="shared" ref="BP17:BP18" si="34">$B17/$E17*AG17</f>
+        <f t="shared" ref="BP17:BP19" si="34">$B17/$E17*AG17</f>
         <v>0</v>
       </c>
       <c r="BQ17" s="6">
-        <f t="shared" ref="BQ17:BQ18" si="35">$B17/$E17*AH17</f>
+        <f t="shared" ref="BQ17:BQ19" si="35">$B17/$E17*AH17</f>
         <v>0</v>
       </c>
       <c r="BR17" s="6">
-        <f t="shared" ref="BR17:BR18" si="36">$B17/$E17*AI17</f>
+        <f t="shared" ref="BR17:BR19" si="36">$B17/$E17*AI17</f>
         <v>0</v>
       </c>
       <c r="BS17" s="6">
-        <f t="shared" ref="BS17:BS18" si="37">$B17/$E17*AJ17</f>
+        <f t="shared" ref="BS17:BS19" si="37">$B17/$E17*AJ17</f>
         <v>0</v>
       </c>
       <c r="BT17" s="6">
-        <f t="shared" ref="BT17:BT18" si="38">$B17/$E17*AK17</f>
+        <f t="shared" ref="BT17:BT19" si="38">$B17/$E17*AK17</f>
         <v>0</v>
       </c>
       <c r="BU17" s="6">
-        <f t="shared" ref="BU17:BU18" si="39">$B17/$E17*AL17</f>
+        <f t="shared" ref="BU17:BU19" si="39">$B17/$E17*AL17</f>
         <v>0</v>
       </c>
       <c r="BV17" s="6">
-        <f t="shared" ref="BV17:BV18" si="40">$B17/$E17*AM17</f>
+        <f t="shared" ref="BV17:BV19" si="40">$B17/$E17*AM17</f>
         <v>0</v>
       </c>
       <c r="BW17" s="6">
-        <f t="shared" ref="BW17:BW18" si="41">$B17/$E17*AN17</f>
+        <f t="shared" ref="BW17:BW19" si="41">$B17/$E17*AN17</f>
         <v>0</v>
       </c>
       <c r="BX17" s="6">
-        <f t="shared" ref="BX17:BX18" si="42">$B17/$E17*AO17</f>
+        <f t="shared" ref="BX17:BX19" si="42">$B17/$E17*AO17</f>
         <v>0</v>
       </c>
       <c r="BY17" s="2"/>
@@ -6718,11 +6973,11 @@
         <v>133</v>
       </c>
       <c r="B18" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="7"/>
-        <v>2.0748000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
         <v>1000</v>
@@ -6889,7 +7144,7 @@
       </c>
       <c r="BB18" s="6">
         <f>$B18/$E18*S18</f>
-        <v>147.36486171353948</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="6">
         <f t="shared" si="21"/>
@@ -6980,6 +7235,277 @@
         <v>0</v>
       </c>
       <c r="BY18" s="2"/>
+    </row>
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="2">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="7"/>
+        <v>0.12026431718061675</v>
+      </c>
+      <c r="D19" s="5">
+        <f>50*454</f>
+        <v>22700</v>
+      </c>
+      <c r="E19" s="5">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>78</v>
+      </c>
+      <c r="G19" s="6">
+        <v>330</v>
+      </c>
+      <c r="H19" s="6">
+        <v>51</v>
+      </c>
+      <c r="I19" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="J19" s="6">
+        <f>(G19-(H19-N19)*4-I19*4)/9</f>
+        <v>20.444444444444443</v>
+      </c>
+      <c r="K19" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1.573</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>29</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="P19" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1.591</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>727</v>
+      </c>
+      <c r="T19" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0</v>
+      </c>
+      <c r="W19" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>46.9</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>104.8</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="6">
+        <f t="shared" si="8"/>
+        <v>115.49999999999999</v>
+      </c>
+      <c r="AQ19" s="6">
+        <f t="shared" si="9"/>
+        <v>17.849999999999998</v>
+      </c>
+      <c r="AR19" s="6">
+        <f t="shared" si="10"/>
+        <v>5.0749999999999993</v>
+      </c>
+      <c r="AS19" s="6">
+        <f t="shared" si="11"/>
+        <v>7.1555555555555541</v>
+      </c>
+      <c r="AT19" s="6">
+        <f t="shared" si="12"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="AU19" s="6">
+        <f t="shared" si="13"/>
+        <v>0.55054999999999998</v>
+      </c>
+      <c r="AV19" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="6">
+        <f t="shared" si="15"/>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="AX19" s="6">
+        <f t="shared" si="16"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="AY19" s="6">
+        <f t="shared" si="17"/>
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="AZ19" s="6">
+        <f t="shared" si="18"/>
+        <v>0.55684999999999996</v>
+      </c>
+      <c r="BA19" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="6">
+        <f t="shared" ref="BB19" si="43">$B19/$E19*S19</f>
+        <v>254.45</v>
+      </c>
+      <c r="BC19" s="6">
+        <f t="shared" si="21"/>
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="BD19" s="6">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="6">
+        <f t="shared" si="24"/>
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="BG19" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BH19" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BI19" s="6">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="6">
+        <f t="shared" si="28"/>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="BK19" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BM19" s="6">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="6">
+        <f t="shared" si="32"/>
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="BO19" s="6">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BP19" s="6">
+        <f t="shared" si="34"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="BQ19" s="6">
+        <f t="shared" si="35"/>
+        <v>0.105</v>
+      </c>
+      <c r="BR19" s="6">
+        <f t="shared" si="36"/>
+        <v>16.414999999999999</v>
+      </c>
+      <c r="BS19" s="6">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BT19" s="6">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="6">
+        <f t="shared" si="39"/>
+        <v>1.47</v>
+      </c>
+      <c r="BV19" s="6">
+        <f t="shared" si="40"/>
+        <v>36.68</v>
+      </c>
+      <c r="BW19" s="6">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BX19" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BY19" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7154,35 +7680,35 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(Spec!B2:B999)</f>
-        <v>456.87000000000006</v>
+        <v>460.57000000000005</v>
       </c>
       <c r="B2" s="3">
         <f>SUM(Spec!C2:C999)</f>
-        <v>2.6822040870526389</v>
+        <v>2.5836146773610085</v>
       </c>
       <c r="C2" s="2">
         <f>SUM(Spec!AP2:'Spec'!AP999)</f>
-        <v>1914.1233333333334</v>
+        <v>1917.1233333333334</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(Spec!AQ2:'Spec'!AQ999)</f>
-        <v>191.55833333333337</v>
+        <v>184.40833333333336</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(Spec!AR2:'Spec'!AR999)</f>
-        <v>141.59000000000003</v>
+        <v>145.41500000000002</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(Spec!AS2:'Spec'!AS999)</f>
-        <v>54.892499999999998</v>
+        <v>62.04805555555555</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(Spec!AT2:'Spec'!AT999)</f>
-        <v>2.1690333333333336</v>
+        <v>2.1718333333333337</v>
       </c>
       <c r="H2" s="2">
         <f>SUM(Spec!AU2:'Spec'!AU999)</f>
-        <v>3.4958</v>
+        <v>4.0463500000000003</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(Spec!AV2:'Spec'!AV999)</f>
@@ -7190,19 +7716,19 @@
       </c>
       <c r="J2" s="2">
         <f>SUM(Spec!AW2:'Spec'!AW999)</f>
-        <v>35.777333333333331</v>
+        <v>28.427333333333333</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(Spec!AX2:'Spec'!AX999)</f>
-        <v>0.94845999999999997</v>
+        <v>0.96245999999999998</v>
       </c>
       <c r="L2" s="2">
         <f>SUM(Spec!AY2:'Spec'!AY999)</f>
-        <v>30.271333333333335</v>
+        <v>32.516333333333336</v>
       </c>
       <c r="M2" s="2">
         <f>SUM(Spec!AZ2:'Spec'!AZ999)</f>
-        <v>0.75428000000000006</v>
+        <v>1.3111299999999999</v>
       </c>
       <c r="N2" s="2">
         <f>SUM(Spec!BA2:'Spec'!BA999)</f>
@@ -7210,11 +7736,11 @@
       </c>
       <c r="O2" s="2">
         <f>SUM(Spec!BB2:'Spec'!BB999)</f>
-        <v>425.06986171353947</v>
+        <v>532.15499999999997</v>
       </c>
       <c r="P2" s="2">
         <f>SUM(Spec!BC2:'Spec'!BC999)</f>
-        <v>20.401</v>
+        <v>22.326000000000001</v>
       </c>
       <c r="Q2" s="2">
         <f>SUM(Spec!BD2:'Spec'!BD999)</f>
@@ -7226,7 +7752,7 @@
       </c>
       <c r="S2" s="2">
         <f>SUM(Spec!BF2:'Spec'!BF999)</f>
-        <v>5.9390000000000001</v>
+        <v>14.898999999999999</v>
       </c>
       <c r="T2" s="2">
         <f>SUM(Spec!BG2:'Spec'!BG999)</f>
@@ -7238,11 +7764,11 @@
       </c>
       <c r="V2" s="2">
         <f>SUM(Spec!BI2:'Spec'!BI999)</f>
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="W2" s="2">
         <f>SUM(Spec!BJ2:'Spec'!BJ999)</f>
-        <v>6.2056000000000004</v>
+        <v>7.3256000000000006</v>
       </c>
       <c r="X2" s="2">
         <f>SUM(Spec!BK2:'Spec'!BK999)</f>
@@ -7258,7 +7784,7 @@
       </c>
       <c r="AA2" s="2">
         <f>SUM(Spec!BN2:'Spec'!BN999)</f>
-        <v>66.446129999999997</v>
+        <v>75.40612999999999</v>
       </c>
       <c r="AB2" s="2">
         <f>SUM(Spec!BO2:'Spec'!BO999)</f>
@@ -7266,15 +7792,15 @@
       </c>
       <c r="AC2" s="2">
         <f>SUM(Spec!BP2:'Spec'!BP999)</f>
-        <v>2.5219999999999998</v>
+        <v>3.5019999999999998</v>
       </c>
       <c r="AD2" s="2">
         <f>SUM(Spec!BQ2:'Spec'!BQ999)</f>
-        <v>1.9159999999999999</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="AE2" s="2">
         <f>SUM(Spec!BR2:'Spec'!BR999)</f>
-        <v>26.154</v>
+        <v>42.569000000000003</v>
       </c>
       <c r="AF2" s="2">
         <f>SUM(Spec!BS2:'Spec'!BS999)</f>
@@ -7286,11 +7812,11 @@
       </c>
       <c r="AH2" s="2">
         <f>SUM(Spec!BU2:'Spec'!BU999)</f>
-        <v>10.692600000000001</v>
+        <v>12.162600000000001</v>
       </c>
       <c r="AI2" s="2">
         <f>SUM(Spec!BV2:'Spec'!BV999)</f>
-        <v>631.01499999999999</v>
+        <v>667.69499999999994</v>
       </c>
       <c r="AJ2" s="2">
         <f>SUM(Spec!BW2:'Spec'!BW999)</f>
@@ -7304,15 +7830,15 @@
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D3" s="7">
         <f>D2/(D2+E2+F2)</f>
-        <v>0.49365509214021719</v>
+        <v>0.47058381540995947</v>
       </c>
       <c r="E3" s="7">
         <f>E2/(F2+E2+D2)</f>
-        <v>0.36488427979014243</v>
+        <v>0.37107837959874873</v>
       </c>
       <c r="F3" s="7">
         <f>F2/(F2+E2+D2)</f>
-        <v>0.14146062806964044</v>
+        <v>0.15833780499129174</v>
       </c>
     </row>
   </sheetData>
@@ -7578,11 +8104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7725,27 +8251,27 @@
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>(Totals!C2-RDAs!A2)/IF(RDAs!A2=0, 1, RDAs!A2)</f>
-        <v>-4.2938333333333273E-2</v>
+        <v>-4.1438333333333278E-2</v>
       </c>
       <c r="B2" s="7">
         <f>(Totals!D2-RDAs!B2)/IF(RDAs!B2=0, 1, RDAs!B2)</f>
-        <v>0.47352564102564126</v>
+        <v>0.41852564102564122</v>
       </c>
       <c r="C2" s="7">
         <f>(Totals!E2-RDAs!C2)/IF(RDAs!C2=0, 1, RDAs!C2)</f>
-        <v>0.66576470588235337</v>
+        <v>0.71076470588235319</v>
       </c>
       <c r="D2" s="7">
         <f>(Totals!F2-RDAs!D2)/IF(RDAs!D2=0, 1, RDAs!D2)</f>
-        <v>-0.15550000000000003</v>
+        <v>-4.5414529914530002E-2</v>
       </c>
       <c r="E2" s="7">
         <f>(Totals!G2-RDAs!E2)/IF(RDAs!E2=0, 1, RDAs!E2)</f>
-        <v>0.44602222222222238</v>
+        <v>0.44788888888888917</v>
       </c>
       <c r="F2" s="7">
         <f>(Totals!H2-RDAs!F2)/IF(RDAs!F2=0, 1, RDAs!F2)</f>
-        <v>-1.1999999999999947E-3</v>
+        <v>0.1561000000000001</v>
       </c>
       <c r="G2" s="7">
         <f>(Totals!I2-RDAs!G2)/IF(RDAs!G2=0, 1, RDAs!G2)</f>
@@ -7753,19 +8279,19 @@
       </c>
       <c r="H2" s="7">
         <f>(Totals!J2-RDAs!H2)/IF(RDAs!H2=0, 1, RDAs!H2)</f>
-        <v>0.27776190476190471</v>
+        <v>1.5261904761904763E-2</v>
       </c>
       <c r="I2" s="7">
         <f>(Totals!K2-RDAs!I2)/IF(RDAs!I2=0, 1, RDAs!I2)</f>
-        <v>-5.154000000000003E-2</v>
+        <v>-3.7540000000000018E-2</v>
       </c>
       <c r="J2" s="7">
         <f>(Totals!L2-RDAs!J2)/IF(RDAs!J2=0, 1, RDAs!J2)</f>
-        <v>2.7839166666666668</v>
+        <v>3.0645416666666669</v>
       </c>
       <c r="K2" s="7">
         <f>(Totals!M2-RDAs!K2)/IF(RDAs!K2=0, 1, RDAs!K2)</f>
-        <v>7.7542857142857302E-2</v>
+        <v>0.87304285714285712</v>
       </c>
       <c r="L2" s="7">
         <f>(Totals!N2-RDAs!L2)/IF(RDAs!L2=0, 1, RDAs!L2)</f>
@@ -7773,11 +8299,11 @@
       </c>
       <c r="M2" s="7">
         <f>(Totals!O2-RDAs!M2)/IF(RDAs!M2=0, 1, RDAs!M2)</f>
-        <v>1.2071099317951112E-2</v>
+        <v>0.26703571428571421</v>
       </c>
       <c r="N2" s="7">
         <f>(Totals!P2-RDAs!N2)/IF(RDAs!N2=0, 1, RDAs!N2)</f>
-        <v>0.85463636363636364</v>
+        <v>1.0296363636363637</v>
       </c>
       <c r="O2" s="7">
         <f>(Totals!Q2-RDAs!O2)/IF(RDAs!O2=0, 1, RDAs!O2)</f>
@@ -7789,7 +8315,7 @@
       </c>
       <c r="Q2" s="7">
         <f>(Totals!S2-RDAs!Q2)/IF(RDAs!Q2=0, 1, RDAs!Q2)</f>
-        <v>1.5821739130434784</v>
+        <v>5.4778260869565223</v>
       </c>
       <c r="R2" s="7">
         <f>(Totals!T2-RDAs!R2)/IF(RDAs!R2=0, 1, RDAs!R2)</f>
@@ -7801,11 +8327,11 @@
       </c>
       <c r="T2" s="7">
         <f>(Totals!V2-RDAs!T2)/IF(RDAs!T2=0, 1, RDAs!T2)</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="U2" s="7">
         <f>(Totals!W2-RDAs!U2)/IF(RDAs!U2=0, 1, RDAs!U2)</f>
-        <v>3.773538461538462</v>
+        <v>4.6350769230769231</v>
       </c>
       <c r="V2" s="7">
         <f>(Totals!X2-RDAs!V2)/IF(RDAs!V2=0, 1, RDAs!V2)</f>
@@ -7821,7 +8347,7 @@
       </c>
       <c r="Y2" s="7">
         <f>(Totals!AA2-RDAs!Y2)/IF(RDAs!Y2=0, 1, RDAs!Y2)</f>
-        <v>2.3223064999999998</v>
+        <v>2.7703064999999993</v>
       </c>
       <c r="Z2" s="7">
         <f>(Totals!AB2-RDAs!Z2)/IF(RDAs!Z2=0, 1, RDAs!Z2)</f>
@@ -7829,15 +8355,15 @@
       </c>
       <c r="AA2" s="7">
         <f>(Totals!AC2-RDAs!AA2)/IF(RDAs!AA2=0, 1, RDAs!AA2)</f>
-        <v>1.1016666666666666</v>
+        <v>1.918333333333333</v>
       </c>
       <c r="AB2" s="7">
         <f>(Totals!AD2-RDAs!AB2)/IF(RDAs!AB2=0, 1, RDAs!AB2)</f>
-        <v>0.47384615384615375</v>
+        <v>0.55461538461538451</v>
       </c>
       <c r="AC2" s="7">
         <f>(Totals!AE2-RDAs!AC2)/IF(RDAs!AC2=0, 1, RDAs!AC2)</f>
-        <v>0.63462499999999999</v>
+        <v>1.6605625000000002</v>
       </c>
       <c r="AD2" s="7">
         <f>(Totals!AF2-RDAs!AD2)/IF(RDAs!AD2=0, 1, RDAs!AD2)</f>
@@ -7849,11 +8375,11 @@
       </c>
       <c r="AF2" s="7">
         <f>(Totals!AH2-RDAs!AF2)/IF(RDAs!AF2=0, 1, RDAs!AF2)</f>
-        <v>1.1385200000000002</v>
+        <v>1.4325200000000002</v>
       </c>
       <c r="AG2" s="7">
         <f>(Totals!AI2-RDAs!AG2)/IF(RDAs!AG2=0, 1, RDAs!AG2)</f>
-        <v>0.14729999999999999</v>
+        <v>0.21399090909090898</v>
       </c>
       <c r="AH2" s="7">
         <f>(Totals!AJ2-RDAs!AH2)/IF(RDAs!AH2=0, 1, RDAs!AH2)</f>
@@ -7874,5 +8400,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="v">
+      <legacyDrawing r:id="rId2"/>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>